--- a/Output/1988/Delaware/Delaware.xlsx
+++ b/Output/1988/Delaware/Delaware.xlsx
@@ -12,11 +12,8 @@
     <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{5F67E948-B2BD-4548-A55E-0A5AEF42A43A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$65</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="115">
   <si>
     <t>State</t>
   </si>
@@ -362,8 +359,16 @@
     <t>4 (Arden, Ardencroft, Ardentown, Bellefonte, Elsmere, Hockessin, New Castle, portions of New Castle County, Newport); Below 100 (Newark &amp; portions of New Castle County)</t>
   </si>
   <si>
+    <t>GHEENWOOD</t>
+  </si>
+  <si>
+    <t>HARRINGTON</t>
+  </si>
+  <si>
+    <t>Below 100 (Bridgeville, Ellendale, Federalsburg, Greenwood, Hurlock, Milton); Outside TV markets (Bowers Beach, Canterbury, Denton, Farmington, Felton, Greensboro, Houston, Lincoln, Magnolia, Sussex, Viola)</t>
+  </si>
+  <si>
     <t>See also MILLSBORO, DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -732,15 +737,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819EE9A6-9A2B-3D40-85CB-72FF662A539D}">
-  <dimension ref="A1:Z65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501B18A6-6851-5F42-B4C1-86C0F684DC86}">
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
@@ -990,7 +992,7 @@
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
         <v>30</v>
@@ -999,16 +1001,16 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1054</v>
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
       </c>
       <c r="M4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="2">
-        <v>1927</v>
+      <c r="N4" t="s">
+        <v>30</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
@@ -1028,8 +1030,8 @@
       <c r="T4">
         <v>1</v>
       </c>
-      <c r="U4" s="2">
-        <v>10592</v>
+      <c r="U4" t="s">
+        <v>63</v>
       </c>
       <c r="V4" t="s">
         <v>63</v>
@@ -1049,22 +1051,22 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
+      <c r="E5" s="2">
+        <v>35000</v>
       </c>
       <c r="F5" s="1">
-        <v>29481</v>
+        <v>27181</v>
       </c>
       <c r="G5" s="2">
-        <v>3225</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
+        <v>6662</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4408</v>
       </c>
       <c r="I5" t="s">
         <v>30</v>
@@ -1072,17 +1074,17 @@
       <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2">
-        <v>2500</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
+      <c r="K5">
+        <v>709</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1054</v>
+      </c>
+      <c r="M5">
+        <v>378</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1927</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
@@ -1103,19 +1105,19 @@
         <v>1</v>
       </c>
       <c r="U5" s="2">
-        <v>4116</v>
+        <v>10592</v>
       </c>
       <c r="V5" s="2">
-        <v>4116</v>
+        <v>12000</v>
       </c>
       <c r="W5">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="X5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -1123,22 +1125,22 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>6500</v>
+      <c r="E6" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="1">
-        <v>23377</v>
-      </c>
-      <c r="G6" t="s">
-        <v>63</v>
+        <v>29481</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3225</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
@@ -1146,8 +1148,8 @@
       <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="K6" t="s">
-        <v>51</v>
+      <c r="K6" s="2">
+        <v>2500</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -1176,20 +1178,20 @@
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" t="s">
-        <v>63</v>
+      <c r="U6" s="2">
+        <v>4116</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4116</v>
       </c>
       <c r="W6">
         <v>35</v>
       </c>
-      <c r="X6" t="s">
-        <v>51</v>
+      <c r="X6">
+        <v>14</v>
       </c>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1197,22 +1199,22 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>45000</v>
+        <v>6500</v>
       </c>
       <c r="F7" s="1">
-        <v>25112</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8307</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1495</v>
+        <v>23377</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
@@ -1221,49 +1223,49 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7">
+        <v>35</v>
+      </c>
+      <c r="X7" t="s">
         <v>51</v>
       </c>
-      <c r="L7">
-        <v>293</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1176</v>
-      </c>
-      <c r="N7">
-        <v>607</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>9500</v>
-      </c>
-      <c r="V7" s="2">
-        <v>14000</v>
-      </c>
-      <c r="W7">
-        <v>23</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
       <c r="Y7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1271,40 +1273,40 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>12500</v>
+        <v>45000</v>
       </c>
       <c r="F8" s="1">
-        <v>23297</v>
+        <v>25112</v>
       </c>
       <c r="G8" s="2">
-        <v>17280</v>
-      </c>
-      <c r="H8" t="s">
+        <v>8307</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1495</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>30</v>
+      <c r="L8">
+        <v>293</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1176</v>
+      </c>
+      <c r="N8">
+        <v>607</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
@@ -1325,42 +1327,39 @@
         <v>1</v>
       </c>
       <c r="U8" s="2">
-        <v>22410</v>
+        <v>9500</v>
       </c>
       <c r="V8" s="2">
-        <v>23083</v>
+        <v>14000</v>
       </c>
       <c r="W8">
-        <v>36</v>
-      </c>
-      <c r="X8" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
       </c>
       <c r="Y8" t="s">
         <v>64</v>
       </c>
-      <c r="Z8" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="F9" s="1">
-        <v>24082</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
+        <v>23297</v>
+      </c>
+      <c r="G9" s="2">
+        <v>17280</v>
       </c>
       <c r="H9" t="s">
         <v>51</v>
@@ -1372,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
@@ -1401,14 +1400,14 @@
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="U9" t="s">
-        <v>63</v>
-      </c>
-      <c r="V9" t="s">
-        <v>63</v>
+      <c r="U9" s="2">
+        <v>22410</v>
+      </c>
+      <c r="V9" s="2">
+        <v>23083</v>
       </c>
       <c r="W9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s">
         <v>51</v>
@@ -1416,28 +1415,31 @@
       <c r="Y9" t="s">
         <v>64</v>
       </c>
+      <c r="Z9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>23000</v>
+        <v>14500</v>
       </c>
       <c r="F10" s="1">
-        <v>27395</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5044</v>
+        <v>24082</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
@@ -1445,20 +1447,20 @@
       <c r="J10" t="s">
         <v>30</v>
       </c>
-      <c r="K10">
-        <v>817</v>
-      </c>
-      <c r="L10">
-        <v>475</v>
-      </c>
-      <c r="M10">
-        <v>337</v>
-      </c>
-      <c r="N10">
-        <v>121</v>
-      </c>
-      <c r="O10">
-        <v>120</v>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
       </c>
       <c r="P10" t="s">
         <v>30</v>
@@ -1475,20 +1477,20 @@
       <c r="T10">
         <v>1</v>
       </c>
-      <c r="U10" s="2">
-        <v>7000</v>
-      </c>
-      <c r="V10" s="2">
-        <v>8000</v>
+      <c r="U10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" t="s">
+        <v>63</v>
       </c>
       <c r="W10">
-        <v>23</v>
-      </c>
-      <c r="X10">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="X10" t="s">
+        <v>51</v>
       </c>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1496,19 +1498,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>400000</v>
+        <v>23000</v>
       </c>
       <c r="F11" s="1">
-        <v>25538</v>
+        <v>27395</v>
       </c>
       <c r="G11" s="2">
-        <v>100000</v>
+        <v>5044</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -1519,20 +1521,20 @@
       <c r="J11" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="2">
-        <v>77000</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" t="s">
-        <v>30</v>
+      <c r="K11">
+        <v>817</v>
+      </c>
+      <c r="L11">
+        <v>475</v>
+      </c>
+      <c r="M11">
+        <v>337</v>
+      </c>
+      <c r="N11">
+        <v>121</v>
+      </c>
+      <c r="O11">
+        <v>120</v>
       </c>
       <c r="P11" t="s">
         <v>30</v>
@@ -1550,19 +1552,19 @@
         <v>1</v>
       </c>
       <c r="U11" s="2">
-        <v>144285</v>
+        <v>7000</v>
       </c>
       <c r="V11" s="2">
-        <v>175000</v>
+        <v>8000</v>
       </c>
       <c r="W11">
         <v>23</v>
       </c>
-      <c r="X11" t="s">
-        <v>109</v>
+      <c r="X11">
+        <v>2</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1570,13 +1572,73 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>25538</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>77000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>144285</v>
+      </c>
+      <c r="V12" s="2">
+        <v>175000</v>
+      </c>
+      <c r="W12">
+        <v>23</v>
+      </c>
+      <c r="X12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1584,7 +1646,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1598,7 +1660,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1612,13 +1674,13 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1626,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1640,13 +1702,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1654,7 +1716,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1668,13 +1730,13 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1682,13 +1744,13 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1696,13 +1758,13 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1710,13 +1772,13 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1724,13 +1786,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1738,13 +1800,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1752,13 +1814,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1766,13 +1828,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1780,13 +1842,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1794,13 +1856,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1808,13 +1870,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1822,7 +1884,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1836,13 +1898,13 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1850,13 +1912,13 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1864,13 +1926,13 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1878,13 +1940,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1892,7 +1954,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1906,13 +1968,13 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1920,13 +1982,13 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1934,13 +1996,13 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1948,13 +2010,13 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1962,13 +2024,13 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1976,13 +2038,13 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1990,13 +2052,13 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2004,7 +2066,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2018,13 +2080,13 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2032,13 +2094,13 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2046,7 +2108,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2060,7 +2122,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2074,13 +2136,13 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2088,13 +2150,13 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2102,7 +2164,7 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2116,13 +2178,13 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2130,13 +2192,13 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2144,7 +2206,7 @@
         <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2158,13 +2220,13 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2172,7 +2234,7 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2186,13 +2248,13 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2200,13 +2262,13 @@
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2214,13 +2276,13 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2234,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2242,13 +2304,13 @@
         <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2262,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2276,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2290,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2298,13 +2360,13 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2312,17 +2374,45 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
         <v>107</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Z68">
+  <sortState ref="A2:Z70">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
